--- a/src/assets/forms/D2Z Upload_Enquiry.xlsx
+++ b/src/assets/forms/D2Z Upload_Enquiry.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Parcel Type</t>
-  </si>
-  <si>
-    <t>Parcel Details</t>
-  </si>
-  <si>
     <t>Delivery Enquiry</t>
   </si>
   <si>
@@ -31,6 +25,12 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Search Type</t>
+  </si>
+  <si>
+    <t>Search Details</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,19 +393,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/forms/D2Z Upload_Enquiry.xlsx
+++ b/src/assets/forms/D2Z Upload_Enquiry.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Delivery Enquiry</t>
-  </si>
-  <si>
-    <t>Delivery POD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Comments</t>
   </si>
@@ -31,6 +25,9 @@
   </si>
   <si>
     <t>Search Details</t>
+  </si>
+  <si>
+    <t>Search Enquiry / POD</t>
   </si>
 </sst>
 </file>
@@ -60,12 +57,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,36 +388,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
